--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt8a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt8a-Fzd5.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Wnt8a</t>
+  </si>
+  <si>
+    <t>Fzd5</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Wnt8a</t>
-  </si>
-  <si>
-    <t>Fzd5</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.033404</v>
+        <v>0.01490866666666667</v>
       </c>
       <c r="H2">
-        <v>21.100212</v>
+        <v>0.044726</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.000565</v>
+        <v>2.133443333333334</v>
       </c>
       <c r="N2">
-        <v>30.001695</v>
+        <v>6.40033</v>
       </c>
       <c r="O2">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="P2">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="Q2">
-        <v>70.33801387326</v>
+        <v>0.0318067955088889</v>
       </c>
       <c r="R2">
-        <v>633.0421248593399</v>
+        <v>0.28626115958</v>
       </c>
       <c r="S2">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="T2">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,10 +596,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.033404</v>
+        <v>0.01490866666666667</v>
       </c>
       <c r="H3">
-        <v>21.100212</v>
+        <v>0.044726</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>12.79438</v>
       </c>
       <c r="O3">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846115</v>
       </c>
       <c r="P3">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846116</v>
       </c>
       <c r="Q3">
-        <v>29.99601448984</v>
+        <v>0.0635823822088889</v>
       </c>
       <c r="R3">
-        <v>269.96413040856</v>
+        <v>0.5722414398800001</v>
       </c>
       <c r="S3">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846115</v>
       </c>
       <c r="T3">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,10 +658,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.033404</v>
+        <v>0.01490866666666667</v>
       </c>
       <c r="H4">
-        <v>21.100212</v>
+        <v>0.044726</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.567455</v>
+        <v>1.788586</v>
       </c>
       <c r="N4">
-        <v>4.702364999999999</v>
+        <v>5.365758</v>
       </c>
       <c r="O4">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="P4">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="Q4">
-        <v>11.02454426682</v>
+        <v>0.02666543247866666</v>
       </c>
       <c r="R4">
-        <v>99.22089840137998</v>
+        <v>0.239988892308</v>
       </c>
       <c r="S4">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="T4">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
     </row>
   </sheetData>
